--- a/downloaded_files/MDPS217_Lecture-35469.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35469.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Abd Allah Ehab Kamal Eldin Abd Elsalam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2250002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله نيكسون مصطفى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Nekson Mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1220187</x:t>
@@ -272,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -887,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.4838606134</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45914.4838606134</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6696731134</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6651393519</x:v>
+        <x:v>45907.6696731134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6651393519</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1079,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4261815625</x:v>
+        <x:v>45909.593430706</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1096,6 +1105,38 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45909.4261815625</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Lecture-35469.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35469.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -96,6 +96,15 @@
     <x:t>Abd Allah Ehab Kamal Eldin Abd Elsalam</x:t>
   </x:si>
   <x:si>
+    <x:t>1220254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
+  </x:si>
+  <x:si>
     <x:t>2250002</x:t>
   </x:si>
   <x:si>
@@ -105,6 +114,15 @@
     <x:t>Abdallah Nekson Mostafa</x:t>
   </x:si>
   <x:si>
+    <x:t>1240111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>omar mohamed salaheldeen</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220187</x:t>
   </x:si>
   <x:si>
@@ -121,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Kamal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو عماد صبحى حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
   </x:si>
   <x:si>
     <x:t>1230224</x:t>
@@ -281,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -896,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45918.8002249653</x:v>
+        <x:v>45927.4429766551</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45918.8002249653</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.4838606134</x:v>
+        <x:v>45927.497705706</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6696731134</x:v>
+        <x:v>45914.4838606134</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6651393519</x:v>
+        <x:v>45927.4154049769</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1120,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4261815625</x:v>
+        <x:v>45907.6696731134</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1137,6 +1164,102 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45907.6651393519</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45909.593430706</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45909.4261815625</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Lecture-35469.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35469.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,15 +114,6 @@
     <x:t>Abdallah Nekson Mostafa</x:t>
   </x:si>
   <x:si>
-    <x:t>1240111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد صلاح الدين محمد عبد الحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>omar mohamed salaheldeen</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220187</x:t>
   </x:si>
   <x:si>
@@ -159,6 +150,15 @@
     <x:t>Farid Ramez Hosny Ghazal</x:t>
   </x:si>
   <x:si>
+    <x:t>1240366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود حماده حليم صالح الحوت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Hamada Halim Saleh Elhout</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240184</x:t>
   </x:si>
   <x:si>
@@ -166,15 +166,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Mohamed Abd El Hakeem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان كريم محمد أحمد زايد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Karim Mohamed Ahmed Zayed</x:t>
   </x:si>
   <x:si>
     <x:t>1240172</x:t>
@@ -308,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -987,7 +978,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.497705706</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +1010,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45914.4838606134</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.4838606134</x:v>
+        <x:v>45927.4154049769</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4154049769</x:v>
+        <x:v>45907.4148635417</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4148635417</x:v>
+        <x:v>45927.6697968403</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1179,7 +1170,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651393519</x:v>
+        <x:v>45909.593430706</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1202,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45909.4261815625</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1228,38 +1219,6 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45909.4261815625</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Lecture-35469.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35469.xlsx
@@ -914,7 +914,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4429766551</x:v>
+        <x:v>45928.2604062153</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>

--- a/downloaded_files/MDPS217_Lecture-35469.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35469.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Farid Ramez Hosny Ghazal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد محمد ابراهيم عمران</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ahmed Mohamed Ibrahim Omran</x:t>
   </x:si>
   <x:si>
     <x:t>1240366</x:t>
@@ -299,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1106,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.6697968403</x:v>
+        <x:v>45929.3126986111</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6696731134</x:v>
+        <x:v>45927.6697968403</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.593430706</x:v>
+        <x:v>45907.6696731134</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1202,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4261815625</x:v>
+        <x:v>45909.593430706</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1219,6 +1228,38 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45909.4261815625</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Lecture-35469.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35469.xlsx
@@ -1266,11 +1266,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(14:16)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(14:15)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(14:16)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(14:15)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(14:16)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(14:15)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
